--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -918,10 +918,10 @@
     <t>Circularity index (CI) and circularity gap index (CGI) for the world, and selected regions and countries in 2011</t>
   </si>
   <si>
-    <t>02-May-2019</t>
-  </si>
-  <si>
     <t>Latest Update:</t>
+  </si>
+  <si>
+    <t>09-May-2019</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1204,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,13 +1219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3003,10 +3003,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1663839311144326E-2"/>
+          <c:x val="5.4342849209103414E-2"/>
           <c:y val="1.2402129667196412E-2"/>
-          <c:w val="0.7571397936746479"/>
-          <c:h val="0.9193446246480651"/>
+          <c:w val="0.80367595980245399"/>
+          <c:h val="0.90626698792567806"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4936,8 +4936,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9872860743328489E-3"/>
-                  <c:y val="-1.7372420093023154E-3"/>
+                  <c:x val="-8.1395677732810492E-2"/>
+                  <c:y val="2.1435789013270246E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6023,8 +6023,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.57219655863439745"/>
-                  <c:y val="0.47400087381905159"/>
+                  <c:x val="-0.65699602165993909"/>
+                  <c:y val="-0.31709864899437995"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6043,7 +6043,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -6051,7 +6051,7 @@
                       <a:t>α = 0,9;  </a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="el-GR" sz="1200" baseline="0">
+                      <a:rPr lang="el-GR" sz="1600" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -6059,7 +6059,7 @@
                       <a:t>β</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -6067,21 +6067,21 @@
                       <a:t> = -3,7</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 0,272</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200">
+                    <a:endParaRPr lang="en-US" sz="1600">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
@@ -6446,11 +6446,39 @@
         <c:axId val="624601192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.2"/>
-          <c:min val="3.2"/>
+          <c:max val="5"/>
+          <c:min val="3.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6476,7 +6504,23 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>log(GDP-PPP per capita,</a:t>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1050">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(GDP-PPP per capita,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1800" baseline="0">
@@ -6548,7 +6592,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
@@ -6570,7 +6614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6583,15 +6627,17 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="624604800"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.70000000000000007"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
+        <c:majorUnit val="0.8"/>
+        <c:minorUnit val="0.4"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="624604800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6609,6 +6655,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6634,7 +6694,24 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>log(CG per capita, in tonnes/cap)</a:t>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(CG per capita, in tonnes/cap)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6669,7 +6746,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
@@ -6677,9 +6754,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6691,7 +6767,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6704,13 +6780,19 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="624601192"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="3.4"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6724,7 +6806,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -7979,13 +8065,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>276223</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>178592</xdr:rowOff>
+      <xdr:rowOff>178591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8006,16 +8092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257968</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17098</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>388937</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139562</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>146276</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8024,8 +8110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19903281" y="3065098"/>
-          <a:ext cx="130969" cy="122464"/>
+          <a:off x="20315274" y="2773300"/>
+          <a:ext cx="129835" cy="122464"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8068,16 +8154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>261089</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15114</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17295</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>383553</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110364</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>139759</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8086,7 +8172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19906402" y="3444114"/>
+          <a:off x="20273795" y="3285362"/>
           <a:ext cx="122464" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -8127,16 +8213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>258633</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151468</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21643</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>395555</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91938</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157431</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8145,8 +8231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19903946" y="4532968"/>
-          <a:ext cx="136922" cy="130970"/>
+          <a:off x="20278143" y="4752950"/>
+          <a:ext cx="135788" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="star7">
           <a:avLst/>
@@ -8221,12 +8307,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85448</cdr:x>
-      <cdr:y>0.35861</cdr:y>
+      <cdr:x>0.87746</cdr:x>
+      <cdr:y>0.29822</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.70811</cdr:y>
+      <cdr:y>0.70625</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8235,8 +8321,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11918040" y="2621606"/>
-          <a:ext cx="2029737" cy="2554967"/>
+          <a:off x="12222675" y="2288199"/>
+          <a:ext cx="1706959" cy="3130672"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8247,56 +8333,56 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200"/>
+            <a:rPr lang="nl-NL" sz="1600"/>
             <a:t>High income</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-NL" sz="1200"/>
+          <a:endParaRPr lang="nl-NL" sz="1600"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200"/>
-            <a:t>Upper middle</a:t>
+            <a:rPr lang="nl-NL" sz="1600"/>
+            <a:t>UM</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
             <a:t> income</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-NL" sz="1200" baseline="0"/>
+          <a:endParaRPr lang="nl-NL" sz="1600" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
-            <a:t>Middle income</a:t>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+            <a:t>UM/LM income</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-NL" sz="1200" baseline="0"/>
+          <a:endParaRPr lang="nl-NL" sz="1600" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
-            <a:t>Lower middle income</a:t>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+            <a:t>LM income</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-NL" sz="1200" baseline="0"/>
+          <a:endParaRPr lang="nl-NL" sz="1600" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
-            <a:t>Lower middle/Lower income</a:t>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+            <a:t>LM/Lower income</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="nl-NL" sz="1200" baseline="0"/>
+          <a:endParaRPr lang="nl-NL" sz="1600" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
             <a:t>Trendline</a:t>
           </a:r>
         </a:p>
@@ -8305,12 +8391,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84692</cdr:x>
-      <cdr:y>0.4705</cdr:y>
+      <cdr:x>0.87251</cdr:x>
+      <cdr:y>0.44255</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85553</cdr:x>
-      <cdr:y>0.48679</cdr:y>
+      <cdr:x>0.88112</cdr:x>
+      <cdr:y>0.45884</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8319,8 +8405,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11772323" y="3439587"/>
-          <a:ext cx="119695" cy="119062"/>
+          <a:off x="12127982" y="3395587"/>
+          <a:ext cx="119680" cy="124989"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8358,12 +8444,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84702</cdr:x>
-      <cdr:y>0.52054</cdr:y>
+      <cdr:x>0.87285</cdr:x>
+      <cdr:y>0.50614</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85563</cdr:x>
-      <cdr:y>0.53683</cdr:y>
+      <cdr:x>0.88146</cdr:x>
+      <cdr:y>0.52243</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8372,8 +8458,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11773745" y="3805373"/>
-          <a:ext cx="119695" cy="119062"/>
+          <a:off x="12132797" y="3883454"/>
+          <a:ext cx="119680" cy="124989"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -8411,12 +8497,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84068</cdr:x>
-      <cdr:y>0.60315</cdr:y>
+      <cdr:x>0.86548</cdr:x>
+      <cdr:y>0.61315</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86923</cdr:x>
-      <cdr:y>0.64441</cdr:y>
+      <cdr:x>0.89403</cdr:x>
+      <cdr:y>0.65441</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8425,8 +8511,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="11685590" y="4409283"/>
-          <a:ext cx="396875" cy="301626"/>
+          <a:off x="12071481" y="4704522"/>
+          <a:ext cx="398208" cy="316576"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8811,7 +8897,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8841,10 +8927,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12884,21 +12970,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -13227,11 +13313,11 @@
       </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="54" t="str">
+      <c r="AF8" s="56" t="str">
         <f>+K2</f>
         <v>Middle East</v>
       </c>
-      <c r="AG8" s="55"/>
+      <c r="AG8" s="57"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="52" t="str">
         <f>+H2</f>
@@ -13686,22 +13772,22 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -14461,12 +14547,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AC21:AD21"/>
@@ -14481,12 +14567,12 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14500,7 +14586,7 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive\thesis_per_chapter\chap02_cgn\manuscript_v2\review_v.1\cgn_sm_v.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive\thesis_per_chapter\chap02_cgn\manuscript_v2\review_v.2\cgn_sm_v.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="275">
   <si>
     <t>AU</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>09-May-2019</t>
+  </si>
+  <si>
+    <t>Circularity Index (100-CI)</t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,7 +1216,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2260,6 +2263,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2274,6 +2278,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2953,6 +2958,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2968,6 +2974,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6864,7 +6871,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7230,7 +7236,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -7264,7 +7269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12970,21 +12974,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -13313,11 +13317,11 @@
       </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="56" t="str">
+      <c r="AF8" s="54" t="str">
         <f>+K2</f>
         <v>Middle East</v>
       </c>
-      <c r="AG8" s="57"/>
+      <c r="AG8" s="55"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="52" t="str">
         <f>+H2</f>
@@ -13772,22 +13776,22 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -14547,12 +14551,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AC21:AD21"/>
@@ -14567,12 +14571,12 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17869,20 +17873,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="str">
         <f>+data_reg!A1</f>
         <v>Regions</v>
@@ -17891,10 +17896,13 @@
         <v>227</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="str">
         <f>+data_reg!A2</f>
         <v>World</v>
@@ -17904,11 +17912,15 @@
         <v>4.2419645511128214</v>
       </c>
       <c r="C2" s="33">
+        <f>100-B2</f>
+        <v>95.758035448887185</v>
+      </c>
+      <c r="D2" s="33">
         <f>+data_reg!G2/(data_reg!C2+data_reg!L2)*100</f>
         <v>18.870955462620046</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="str">
         <f>+data_reg!A3</f>
         <v>Europe</v>
@@ -17918,11 +17930,15 @@
         <v>7.6834606979238664</v>
       </c>
       <c r="C3" s="33">
+        <f t="shared" ref="C3:C13" si="0">100-B3</f>
+        <v>92.316539302076137</v>
+      </c>
+      <c r="D3" s="33">
         <f>+data_reg!G3/(data_reg!C3+data_reg!L3)*100</f>
         <v>26.63448807501786</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="str">
         <f>+data_reg!A4</f>
         <v>North America</v>
@@ -17932,11 +17948,15 @@
         <v>4.0409185015064759</v>
       </c>
       <c r="C4" s="33">
+        <f t="shared" si="0"/>
+        <v>95.959081498493518</v>
+      </c>
+      <c r="D4" s="33">
         <f>+data_reg!G4/(data_reg!C4+data_reg!L4)*100</f>
         <v>30.260786678959402</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="str">
         <f>+data_reg!A5</f>
         <v>China</v>
@@ -17946,11 +17966,15 @@
         <v>2.9428850073456969</v>
       </c>
       <c r="C5" s="33">
+        <f t="shared" si="0"/>
+        <v>97.057114992654306</v>
+      </c>
+      <c r="D5" s="33">
         <f>+data_reg!G5/(data_reg!C5+data_reg!L5)*100</f>
         <v>6.7989146469413289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="str">
         <f>+data_reg!A6</f>
         <v>Russia</v>
@@ -17960,11 +17984,15 @@
         <v>2.4300427610462125</v>
       </c>
       <c r="C6" s="33">
+        <f t="shared" si="0"/>
+        <v>97.569957238953791</v>
+      </c>
+      <c r="D6" s="33">
         <f>+data_reg!G6/(data_reg!C6+data_reg!L6)*100</f>
         <v>62.175905836127896</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="str">
         <f>+data_reg!A7</f>
         <v>India</v>
@@ -17974,11 +18002,15 @@
         <v>5.1432210512379832</v>
       </c>
       <c r="C7" s="33">
+        <f t="shared" si="0"/>
+        <v>94.856778948762013</v>
+      </c>
+      <c r="D7" s="33">
         <f>+data_reg!G7/(data_reg!C7+data_reg!L7)*100</f>
         <v>38.124137771652379</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="str">
         <f>+data_reg!A8</f>
         <v>Australia</v>
@@ -17988,11 +18020,15 @@
         <v>2.4582564824217337</v>
       </c>
       <c r="C8" s="33">
+        <f t="shared" si="0"/>
+        <v>97.541743517578269</v>
+      </c>
+      <c r="D8" s="33">
         <f>+data_reg!G8/(data_reg!C8+data_reg!L8)*100</f>
         <v>60.532026347269387</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="str">
         <f>+data_reg!A9</f>
         <v>Japan</v>
@@ -18002,11 +18038,15 @@
         <v>8.230498233330847</v>
       </c>
       <c r="C9" s="33">
+        <f t="shared" si="0"/>
+        <v>91.769501766669151</v>
+      </c>
+      <c r="D9" s="33">
         <f>+data_reg!G9/(data_reg!C9+data_reg!L9)*100</f>
         <v>25.980049647358161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="str">
         <f>+data_reg!A10</f>
         <v>Latin America</v>
@@ -18016,11 +18056,15 @@
         <v>3.4554337673828339</v>
       </c>
       <c r="C10" s="33">
+        <f t="shared" si="0"/>
+        <v>96.544566232617171</v>
+      </c>
+      <c r="D10" s="33">
         <f>+data_reg!G10/(data_reg!C10+data_reg!L10)*100</f>
         <v>47.359751571612229</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="str">
         <f>+data_reg!A11</f>
         <v>Middle East</v>
@@ -18030,11 +18074,15 @@
         <v>1.3269352105560255</v>
       </c>
       <c r="C11" s="33">
+        <f t="shared" si="0"/>
+        <v>98.67306478944397</v>
+      </c>
+      <c r="D11" s="33">
         <f>+data_reg!G11/(data_reg!C11+data_reg!L11)*100</f>
         <v>6.5067165149696127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="str">
         <f>+data_reg!A12</f>
         <v>Africa</v>
@@ -18044,11 +18092,15 @@
         <v>3.3914031110879179</v>
       </c>
       <c r="C12" s="33">
+        <f t="shared" si="0"/>
+        <v>96.608596888912075</v>
+      </c>
+      <c r="D12" s="33">
         <f>+data_reg!G12/(data_reg!C12+data_reg!L12)*100</f>
         <v>40.638834037870119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="str">
         <f>+data_reg!A13</f>
         <v>Asia and Pacific</v>
@@ -18058,15 +18110,19 @@
         <v>1.8915286285946127</v>
       </c>
       <c r="C13" s="33">
+        <f t="shared" si="0"/>
+        <v>98.108471371405386</v>
+      </c>
+      <c r="D13" s="33">
         <f>+data_reg!G13/(data_reg!C13+data_reg!L13)*100</f>
         <v>20.030751597861876</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="274">
   <si>
     <t>AU</t>
   </si>
@@ -919,9 +919,6 @@
   </si>
   <si>
     <t>Latest Update:</t>
-  </si>
-  <si>
-    <t>09-May-2019</t>
   </si>
   <si>
     <t>Circularity Index (100-CI)</t>
@@ -1207,7 +1204,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,13 +1219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2263,7 +2260,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2278,7 +2274,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2958,7 +2953,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2974,7 +2968,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4411,9 +4404,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4446,9 +4437,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4456,7 +4445,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4476,9 +4464,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4486,7 +4472,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4506,9 +4491,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4541,9 +4524,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4551,7 +4532,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4571,9 +4551,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4606,9 +4584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4616,7 +4592,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4636,9 +4611,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4671,9 +4644,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4681,7 +4652,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4701,9 +4671,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4736,9 +4704,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4746,7 +4712,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4766,9 +4731,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4776,7 +4739,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4796,9 +4758,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4806,7 +4766,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4826,9 +4785,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4861,9 +4818,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4896,9 +4851,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4931,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -4966,9 +4917,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5001,9 +4950,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5011,7 +4958,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5031,9 +4977,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5066,9 +5010,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5101,9 +5043,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5136,9 +5076,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5171,9 +5109,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5181,7 +5117,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5201,9 +5136,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5236,9 +5169,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5271,9 +5202,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5281,7 +5210,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5301,9 +5229,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5311,7 +5237,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5331,9 +5256,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5341,7 +5264,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5361,9 +5283,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5371,7 +5291,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5391,9 +5310,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5401,7 +5318,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="31"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5421,9 +5337,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5456,9 +5370,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5466,7 +5378,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5486,9 +5397,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5496,7 +5405,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="34"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5516,9 +5424,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5526,7 +5432,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="35"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5546,9 +5451,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5581,9 +5484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5616,9 +5517,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5651,9 +5550,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5686,9 +5583,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5721,9 +5616,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5756,9 +5649,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5766,7 +5657,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="42"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5786,9 +5676,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5796,7 +5684,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="43"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5816,9 +5703,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5851,9 +5736,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5886,9 +5769,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002E-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5896,7 +5777,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="46"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5916,9 +5796,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002F-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -5951,9 +5829,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-65AA-4DCF-932C-F64CBBEAAFF0}"/>
                 </c:ext>
@@ -6569,7 +6445,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6723,7 +6598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8906,6 +8780,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
@@ -8933,8 +8808,8 @@
       <c r="A5" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>273</v>
+      <c r="C5" s="41">
+        <v>43627</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,21 +12849,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -13317,11 +13192,11 @@
       </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="54" t="str">
+      <c r="AF8" s="56" t="str">
         <f>+K2</f>
         <v>Middle East</v>
       </c>
-      <c r="AG8" s="55"/>
+      <c r="AG8" s="57"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="52" t="str">
         <f>+H2</f>
@@ -13776,22 +13651,22 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -14551,12 +14426,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AC21:AD21"/>
@@ -14571,12 +14446,12 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17896,7 +17771,7 @@
         <v>227</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>228</v>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="9" r:id="rId1"/>
@@ -921,7 +921,7 @@
     <t>Latest Update:</t>
   </si>
   <si>
-    <t>Circularity Index (100-CI)</t>
+    <t>100 - Circularity Index</t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,7 +1213,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8774,7 +8774,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -12849,21 +12849,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -13192,11 +13192,11 @@
       </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="56" t="str">
+      <c r="AF8" s="54" t="str">
         <f>+K2</f>
         <v>Middle East</v>
       </c>
-      <c r="AG8" s="57"/>
+      <c r="AG8" s="55"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="52" t="str">
         <f>+H2</f>
@@ -13651,22 +13651,22 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -14426,12 +14426,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AC21:AD21"/>
@@ -14446,12 +14446,12 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17750,8 +17750,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive\thesis_per_chapter\chap02_cgn\manuscript_v2\review_v.2\cgn_sm_v.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive\thesis_per_chapter\chap02_cgn\corrigendum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="9" r:id="rId1"/>
@@ -738,8 +738,146 @@
     </r>
   </si>
   <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>GDP per capita, PPP (current international $/cap-PPP)</t>
+  </si>
+  <si>
+    <t>Circularity Gap per capita (tonnes/cap)</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Rest of Africa</t>
+  </si>
+  <si>
+    <t>Rest of Latin America</t>
+  </si>
+  <si>
+    <t>Rest of Asia&amp;Pacific</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Slovak Rep.</t>
+  </si>
+  <si>
+    <t>fig_5</t>
+  </si>
+  <si>
+    <t>Rest of Europe</t>
+  </si>
+  <si>
+    <t>REGRESSION ANALYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(GDP per capita, PPP in current international $/cap)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(Circularity Gap per capita in tonnes/cap)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted log(Circularity Gap per capita in tonnes/cap)
+</t>
+  </si>
+  <si>
+    <t>table_1</t>
+  </si>
+  <si>
+    <t>Regression analysis of logarithm of circularity gap per capita (CG/cap, in tonnes/cap) over logarithm of gross domestic product, purchasing power parity per capita (GDP-PPP/cap, in current international $/cap)</t>
+  </si>
+  <si>
+    <t>Circularity index (CI) and circularity gap index (CGI) for the world, and selected regions and countries in 2011</t>
+  </si>
+  <si>
+    <t>Latest Update:</t>
+  </si>
+  <si>
+    <t>100 - Circularity Index</t>
+  </si>
+  <si>
     <r>
-      <t>Circularity Gap Index (</t>
+      <t>Circularity Gap Index_Corrected (</t>
     </r>
     <r>
       <rPr>
@@ -784,144 +922,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95,0%</t>
-  </si>
-  <si>
-    <t>Upper 95,0%</t>
-  </si>
-  <si>
-    <t>RESIDUAL OUTPUT</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Residuals</t>
-  </si>
-  <si>
-    <t>GDP per capita, PPP (current international $/cap-PPP)</t>
-  </si>
-  <si>
-    <t>Circularity Gap per capita (tonnes/cap)</t>
-  </si>
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Rest of Africa</t>
-  </si>
-  <si>
-    <t>Rest of Latin America</t>
-  </si>
-  <si>
-    <t>Rest of Asia&amp;Pacific</t>
-  </si>
-  <si>
-    <t>Czech Rep.</t>
-  </si>
-  <si>
-    <t>Slovak Rep.</t>
-  </si>
-  <si>
-    <t>fig_5</t>
-  </si>
-  <si>
-    <t>Rest of Europe</t>
-  </si>
-  <si>
-    <t>REGRESSION ANALYSIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(GDP per capita, PPP in current international $/cap)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(Circularity Gap per capita in tonnes/cap)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicted log(Circularity Gap per capita in tonnes/cap)
-</t>
-  </si>
-  <si>
-    <t>table_1</t>
-  </si>
-  <si>
-    <t>Regression analysis of logarithm of circularity gap per capita (CG/cap, in tonnes/cap) over logarithm of gross domestic product, purchasing power parity per capita (GDP-PPP/cap, in current international $/cap)</t>
-  </si>
-  <si>
-    <t>Circularity index (CI) and circularity gap index (CGI) for the world, and selected regions and countries in 2011</t>
-  </si>
-  <si>
-    <t>Latest Update:</t>
-  </si>
-  <si>
-    <t>100 - Circularity Index</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1201,16 +1201,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,6 +1217,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8774,8 +8780,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8806,10 +8812,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="41">
-        <v>43627</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8893,24 +8899,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9747,12 +9753,20 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -12559,12 +12573,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
@@ -12839,7 +12853,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -12849,21 +12863,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -13132,77 +13146,77 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="52" t="str">
+      <c r="B8" s="54" t="str">
         <f>+B2</f>
         <v xml:space="preserve">World </v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="52" t="str">
+      <c r="E8" s="54" t="str">
         <f>+C2</f>
         <v>Europe</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="52" t="str">
+      <c r="H8" s="54" t="str">
         <f>+E2</f>
         <v>China</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="52" t="str">
+      <c r="K8" s="54" t="str">
         <f>+D2</f>
         <v>North America</v>
       </c>
-      <c r="L8" s="52"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="52" t="str">
+      <c r="N8" s="54" t="str">
         <f>+J2</f>
         <v>Latin America</v>
       </c>
-      <c r="O8" s="52"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="52" t="str">
+      <c r="Q8" s="54" t="str">
         <f>+G2</f>
         <v>India</v>
       </c>
-      <c r="R8" s="52"/>
+      <c r="R8" s="54"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="52" t="str">
+      <c r="T8" s="54" t="str">
         <f>+M2</f>
         <v>Asia and Pacific</v>
       </c>
-      <c r="U8" s="52"/>
+      <c r="U8" s="54"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="52" t="str">
+      <c r="W8" s="54" t="str">
         <f>+L2</f>
         <v>Africa</v>
       </c>
-      <c r="X8" s="52"/>
+      <c r="X8" s="54"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="52" t="str">
+      <c r="Z8" s="54" t="str">
         <f>+F2</f>
         <v>Russia</v>
       </c>
-      <c r="AA8" s="52"/>
+      <c r="AA8" s="54"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="52" t="str">
+      <c r="AC8" s="54" t="str">
         <f>+I2</f>
         <v>Japan</v>
       </c>
-      <c r="AD8" s="52"/>
+      <c r="AD8" s="54"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="54" t="str">
+      <c r="AF8" s="58" t="str">
         <f>+K2</f>
         <v>Middle East</v>
       </c>
-      <c r="AG8" s="55"/>
+      <c r="AG8" s="59"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="52" t="str">
+      <c r="AI8" s="54" t="str">
         <f>+H2</f>
         <v>Australia</v>
       </c>
-      <c r="AJ8" s="52"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="10"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -13651,22 +13665,22 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -13938,77 +13952,77 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="52" t="str">
+      <c r="B21" s="54" t="str">
         <f>+B15</f>
         <v xml:space="preserve">World </v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="52" t="str">
+      <c r="E21" s="54" t="str">
         <f>+C15</f>
         <v>Europe</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="52" t="str">
+      <c r="H21" s="54" t="str">
         <f>+E15</f>
         <v>China</v>
       </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="52" t="str">
+      <c r="K21" s="54" t="str">
         <f>+D15</f>
         <v>North America</v>
       </c>
-      <c r="L21" s="52"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="52" t="str">
+      <c r="N21" s="54" t="str">
         <f>+J15</f>
         <v>Latin America</v>
       </c>
-      <c r="O21" s="52"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="52" t="str">
+      <c r="Q21" s="54" t="str">
         <f>+G15</f>
         <v>India</v>
       </c>
-      <c r="R21" s="52"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="52" t="str">
+      <c r="T21" s="54" t="str">
         <f>+M15</f>
         <v>Asia and Pacific</v>
       </c>
-      <c r="U21" s="52"/>
+      <c r="U21" s="54"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="52" t="str">
+      <c r="W21" s="54" t="str">
         <f>+L15</f>
         <v>Africa</v>
       </c>
-      <c r="X21" s="52"/>
+      <c r="X21" s="54"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="52" t="str">
+      <c r="Z21" s="54" t="str">
         <f>+F15</f>
         <v>Russia</v>
       </c>
-      <c r="AA21" s="52"/>
+      <c r="AA21" s="54"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="52" t="str">
+      <c r="AC21" s="54" t="str">
         <f>+I15</f>
         <v>Japan</v>
       </c>
-      <c r="AD21" s="52"/>
+      <c r="AD21" s="54"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="52" t="str">
+      <c r="AF21" s="54" t="str">
         <f>+K15</f>
         <v>Middle East</v>
       </c>
-      <c r="AG21" s="52"/>
+      <c r="AG21" s="54"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="52" t="str">
+      <c r="AI21" s="54" t="str">
         <f>+H15</f>
         <v>Australia</v>
       </c>
-      <c r="AJ21" s="52"/>
+      <c r="AJ21" s="54"/>
       <c r="AK21" s="10"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -14426,12 +14440,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AC21:AD21"/>
@@ -14446,12 +14460,12 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14492,19 +14506,19 @@
         <v>Population (cap)</v>
       </c>
       <c r="D1" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>257</v>
-      </c>
       <c r="G1" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>266</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -14701,7 +14715,7 @@
         <v>1.2108442039299165</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
@@ -15647,7 +15661,7 @@
         <v>1.5826929289447449</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="1"/>
@@ -15819,7 +15833,7 @@
         <v>0.29649530057731288</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="1"/>
@@ -16217,7 +16231,7 @@
         <v>-6.8401562451391049E-2</v>
       </c>
       <c r="J41" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
@@ -16251,7 +16265,7 @@
         <v>0.35820256583004229</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="1"/>
@@ -16262,7 +16276,7 @@
         <v>-0.44587130759408428</v>
       </c>
       <c r="J42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -16348,7 +16362,7 @@
         <v>0.30269999487841487</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K44" s="37"/>
       <c r="L44"/>
@@ -16392,7 +16406,7 @@
         <v>-0.1125905645100491</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K45" s="34">
         <v>0.52155038862737968</v>
@@ -16427,7 +16441,7 @@
         <v>0.84146870387991846</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="1"/>
@@ -16438,7 +16452,7 @@
         <v>-7.4962031779668772E-2</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K46" s="34">
         <v>0.27201480787737081</v>
@@ -16484,7 +16498,7 @@
         <v>-3.5270447277661633E-2</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K47" s="34">
         <v>0.25618904283122668</v>
@@ -16530,7 +16544,7 @@
         <v>-0.36641260199963221</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K48" s="34">
         <v>0.4402764116699589</v>
@@ -16565,7 +16579,7 @@
         <v>0.41219829312513789</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="1"/>
@@ -16576,7 +16590,7 @@
         <v>-0.38489381092621083</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K49" s="35">
         <v>48</v>
@@ -16599,7 +16613,7 @@
     <row r="51" spans="1:19" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="40"/>
       <c r="J51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
@@ -16614,19 +16628,19 @@
       <c r="F52" s="40"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L52" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="L52" s="36" t="s">
+      <c r="M52" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="M52" s="36" t="s">
+      <c r="N52" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="N52" s="36" t="s">
+      <c r="O52" s="36" t="s">
         <v>243</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>244</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
@@ -16635,7 +16649,7 @@
     <row r="53" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F53" s="40"/>
       <c r="J53" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K53" s="34">
         <v>1</v>
@@ -16659,7 +16673,7 @@
     <row r="54" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F54" s="40"/>
       <c r="J54" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K54" s="34">
         <v>46</v>
@@ -16710,34 +16724,34 @@
       <c r="F57" s="40"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="L57" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="M57" s="36" t="s">
+      <c r="N57" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="N57" s="36" t="s">
+      <c r="O57" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="O57" s="36" t="s">
+      <c r="P57" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="P57" s="36" t="s">
+      <c r="Q57" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="Q57" s="36" t="s">
+      <c r="R57" s="36" t="s">
         <v>250</v>
-      </c>
-      <c r="R57" s="36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F58" s="40"/>
       <c r="J58" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K58" s="34">
         <v>-3.7047237926488372</v>
@@ -16767,7 +16781,7 @@
     <row r="59" spans="1:19" s="39" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="40"/>
       <c r="J59" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K59" s="35">
         <v>0.90010669465065096</v>
@@ -16833,7 +16847,7 @@
     <row r="63" spans="1:19" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="40"/>
       <c r="J63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -16859,13 +16873,13 @@
     <row r="65" spans="6:18" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="40"/>
       <c r="J65" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L65" s="36" t="s">
         <v>253</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="L65" s="36" t="s">
-        <v>254</v>
       </c>
       <c r="M65"/>
       <c r="N65"/>
@@ -17748,10 +17762,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17759,10 +17773,10 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="str">
         <f>+data_reg!A1</f>
         <v>Regions</v>
@@ -17771,13 +17785,13 @@
         <v>227</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="str">
         <f>+data_reg!A2</f>
         <v>World</v>
@@ -17790,12 +17804,13 @@
         <f>100-B2</f>
         <v>95.758035448887185</v>
       </c>
-      <c r="D2" s="33">
-        <f>+data_reg!G2/(data_reg!C2+data_reg!L2)*100</f>
-        <v>18.870955462620046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="53">
+        <f>+data_reg!G2/(data_reg!G2+data_reg!F2)*100</f>
+        <v>64.20416328204054</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="str">
         <f>+data_reg!A3</f>
         <v>Europe</v>
@@ -17808,12 +17823,13 @@
         <f t="shared" ref="C3:C13" si="0">100-B3</f>
         <v>92.316539302076137</v>
       </c>
-      <c r="D3" s="33">
-        <f>+data_reg!G3/(data_reg!C3+data_reg!L3)*100</f>
-        <v>26.63448807501786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="53">
+        <f>+data_reg!G3/(data_reg!G3+data_reg!F3)*100</f>
+        <v>57.824732939322956</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="str">
         <f>+data_reg!A4</f>
         <v>North America</v>
@@ -17826,12 +17842,13 @@
         <f t="shared" si="0"/>
         <v>95.959081498493518</v>
       </c>
-      <c r="D4" s="33">
-        <f>+data_reg!G4/(data_reg!C4+data_reg!L4)*100</f>
-        <v>30.260786678959402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="53">
+        <f>+data_reg!G4/(data_reg!G4+data_reg!F4)*100</f>
+        <v>69.948304993510874</v>
+      </c>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="str">
         <f>+data_reg!A5</f>
         <v>China</v>
@@ -17844,12 +17861,13 @@
         <f t="shared" si="0"/>
         <v>97.057114992654306</v>
       </c>
-      <c r="D5" s="33">
-        <f>+data_reg!G5/(data_reg!C5+data_reg!L5)*100</f>
-        <v>6.7989146469413289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="53">
+        <f>+data_reg!G5/(data_reg!G5+data_reg!F5)*100</f>
+        <v>58.226448314186307</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="str">
         <f>+data_reg!A6</f>
         <v>Russia</v>
@@ -17862,12 +17880,13 @@
         <f t="shared" si="0"/>
         <v>97.569957238953791</v>
       </c>
-      <c r="D6" s="33">
-        <f>+data_reg!G6/(data_reg!C6+data_reg!L6)*100</f>
-        <v>62.175905836127896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="53">
+        <f>+data_reg!G6/(data_reg!G6+data_reg!F6)*100</f>
+        <v>83.422319008028865</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="str">
         <f>+data_reg!A7</f>
         <v>India</v>
@@ -17880,12 +17899,13 @@
         <f t="shared" si="0"/>
         <v>94.856778948762013</v>
       </c>
-      <c r="D7" s="33">
-        <f>+data_reg!G7/(data_reg!C7+data_reg!L7)*100</f>
-        <v>38.124137771652379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="53">
+        <f>+data_reg!G7/(data_reg!G7+data_reg!F7)*100</f>
+        <v>69.18358036975512</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="str">
         <f>+data_reg!A8</f>
         <v>Australia</v>
@@ -17898,12 +17918,13 @@
         <f t="shared" si="0"/>
         <v>97.541743517578269</v>
       </c>
-      <c r="D8" s="33">
-        <f>+data_reg!G8/(data_reg!C8+data_reg!L8)*100</f>
-        <v>60.532026347269387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="53">
+        <f>+data_reg!G8/(data_reg!G8+data_reg!F8)*100</f>
+        <v>70.141157999413679</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="str">
         <f>+data_reg!A9</f>
         <v>Japan</v>
@@ -17916,12 +17937,13 @@
         <f t="shared" si="0"/>
         <v>91.769501766669151</v>
       </c>
-      <c r="D9" s="33">
-        <f>+data_reg!G9/(data_reg!C9+data_reg!L9)*100</f>
-        <v>25.980049647358161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="53">
+        <f>+data_reg!G9/(data_reg!G9+data_reg!F9)*100</f>
+        <v>54.175140668727309</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="str">
         <f>+data_reg!A10</f>
         <v>Latin America</v>
@@ -17934,12 +17956,13 @@
         <f t="shared" si="0"/>
         <v>96.544566232617171</v>
       </c>
-      <c r="D10" s="33">
-        <f>+data_reg!G10/(data_reg!C10+data_reg!L10)*100</f>
-        <v>47.359751571612229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="53">
+        <f>+data_reg!G10/(data_reg!G10+data_reg!F10)*100</f>
+        <v>74.774208644578792</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="str">
         <f>+data_reg!A11</f>
         <v>Middle East</v>
@@ -17952,12 +17975,13 @@
         <f t="shared" si="0"/>
         <v>98.67306478944397</v>
       </c>
-      <c r="D11" s="33">
-        <f>+data_reg!G11/(data_reg!C11+data_reg!L11)*100</f>
-        <v>6.5067165149696127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="53">
+        <f>+data_reg!G11/(data_reg!G11+data_reg!F11)*100</f>
+        <v>66.335647323047283</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="str">
         <f>+data_reg!A12</f>
         <v>Africa</v>
@@ -17970,12 +17994,13 @@
         <f t="shared" si="0"/>
         <v>96.608596888912075</v>
       </c>
-      <c r="D12" s="33">
-        <f>+data_reg!G12/(data_reg!C12+data_reg!L12)*100</f>
-        <v>40.638834037870119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="53">
+        <f>+data_reg!G12/(data_reg!G12+data_reg!F12)*100</f>
+        <v>57.805476358744869</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="str">
         <f>+data_reg!A13</f>
         <v>Asia and Pacific</v>
@@ -17988,17 +18013,22 @@
         <f t="shared" si="0"/>
         <v>98.108471371405386</v>
       </c>
-      <c r="D13" s="33">
-        <f>+data_reg!G13/(data_reg!C13+data_reg!L13)*100</f>
-        <v>20.030751597861876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="53">
+        <f>+data_reg!G13/(data_reg!G13+data_reg!F13)*100</f>
+        <v>64.721939167190129</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
